--- a/daily_work_tracker/daily_work_tracker.xlsx
+++ b/daily_work_tracker/daily_work_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zenonai-my.sharepoint.com/personal/rmaitra_zenon_ai/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="8_{41CE36C1-3D05-41A1-A78E-AD8CCA0BD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED4F04FE-6E26-457E-B988-71767C652BE0}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{41CE36C1-3D05-41A1-A78E-AD8CCA0BD54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A46FA9-2294-4566-8FD2-1B387F16C7CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E1C042CF-DBA2-4B43-8795-2F56870D2C60}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>SP(Stock Plan) Reporting</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>ria-maitra-datascience</t>
+  </si>
+  <si>
+    <t>hellllllllllllllossssssssssssssssss</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1320,7 @@
   <dimension ref="E1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,6 +1425,9 @@
         <v>33</v>
       </c>
       <c r="H9" s="12"/>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
       <c r="M9" s="9"/>
     </row>
     <row r="10" spans="5:17" ht="28.8" x14ac:dyDescent="0.3">
